--- a/util/test_data_driven.xlsx
+++ b/util/test_data_driven.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -210,6 +210,41 @@
       <t xml:space="preserve">
 password=  123456</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_movecar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00</t>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名：赵楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,19 +614,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="54.375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,6 +768,46 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/util/test_data_driven.xlsx
+++ b/util/test_data_driven.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -229,22 +229,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名：赵楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar003</t>
+  </si>
+  <si>
+    <t>车辆编码：120113000064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar004</t>
+  </si>
+  <si>
+    <t>test_movecar005</t>
+  </si>
+  <si>
+    <t>test_movecar006</t>
+  </si>
+  <si>
+    <t>test_movecar007</t>
+  </si>
+  <si>
+    <t>车辆编码：120113000064，员工姓名：杨芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查询成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_movecar002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工姓名：赵楠</t>
+    <t>开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00，车辆编码：120113000064</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名：杨芸，开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆编码：120113000064，开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00，员工姓名：杨芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est_order</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est_order</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,16 +881,16 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -804,10 +902,124 @@
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/util/test_data_driven.xlsx
+++ b/util/test_data_driven.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -343,6 +343,158 @@
   </si>
   <si>
     <t>test_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order002</t>
+  </si>
+  <si>
+    <t>test_order003</t>
+  </si>
+  <si>
+    <t>test_order004</t>
+  </si>
+  <si>
+    <t>test_order005</t>
+  </si>
+  <si>
+    <t>test_order006</t>
+  </si>
+  <si>
+    <t>test_order007</t>
+  </si>
+  <si>
+    <t>test_order008</t>
+  </si>
+  <si>
+    <t>test_order009</t>
+  </si>
+  <si>
+    <t>test_order010</t>
+  </si>
+  <si>
+    <t>用户姓名：杨芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码：15095859543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆编码：120113000064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端编号：3485095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否应付：有应付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态：骑行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常状态：无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否违约：有违约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型：非员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束状态：客户结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取车位置：站外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间：2020-07-01 00:00:00,2020-07-03 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order011</t>
+  </si>
+  <si>
+    <t>test_order012</t>
+  </si>
+  <si>
+    <t>test_order013</t>
+  </si>
+  <si>
+    <t>test_order014</t>
+  </si>
+  <si>
+    <t>test_order015</t>
+  </si>
+  <si>
+    <t>test_order016</t>
+  </si>
+  <si>
+    <t>test_order017</t>
+  </si>
+  <si>
+    <t>test_order018</t>
+  </si>
+  <si>
+    <t>test_order019</t>
+  </si>
+  <si>
+    <t>订单编号：1516111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1516111，用户姓名：杨芸，手机号码：18113174189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆编码：120113000064，终端编号：3485095，订单状态：已结束，异常状态：无异常，用户类型：非员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名：杨芸，车辆编码：120113000064，开始时间：2020-05-01 00:00:00,2020-05-06 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码：15095859543，结束状态：用户结束，用户类型：员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1516111，用户姓名：杨芸，手机号码：18113174189，车辆编码：120113000064，终端编号：3485095，是否应付：有应付，订单状态：已结束，异常状态：有异常，是否违约：无违约，用户类型：员工，结束状态：boss结束，取车位置：站外，开始时间：2020-05-01 00:00:00,2020-06-01 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型：非员工，结束状态：运维结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order020</t>
+  </si>
+  <si>
+    <t>test_order021</t>
+  </si>
+  <si>
+    <t>test_order022</t>
+  </si>
+  <si>
+    <t>test_order023</t>
+  </si>
+  <si>
+    <t>test_order024</t>
+  </si>
+  <si>
+    <t>test_order025</t>
+  </si>
+  <si>
+    <t>是否违约：有违约，异常状态：无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1021,6 +1173,402 @@
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/util/test_data_driven.xlsx
+++ b/util/test_data_driven.xlsx
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/util/test_data_driven.xlsx
+++ b/util/test_data_driven.xlsx
@@ -15,6 +15,7 @@
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -68,7 +69,390 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欢迎您</t>
+    <r>
+      <t>username=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15085858585</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+password=admin</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>username=15095859543</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+password=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>username=  15085858585</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+password=123456</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>username=15085858585</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+password=  123456</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_movecar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名：赵楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar003</t>
+  </si>
+  <si>
+    <t>车辆编码：120113000064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_movecar004</t>
+  </si>
+  <si>
+    <t>test_movecar005</t>
+  </si>
+  <si>
+    <t>test_movecar006</t>
+  </si>
+  <si>
+    <t>test_movecar007</t>
+  </si>
+  <si>
+    <t>车辆编码：120113000064，员工姓名：杨芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00，车辆编码：120113000064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名：杨芸，开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆编码：120113000064，开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00，员工姓名：杨芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est_order</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est_order</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order002</t>
+  </si>
+  <si>
+    <t>test_order003</t>
+  </si>
+  <si>
+    <t>test_order004</t>
+  </si>
+  <si>
+    <t>test_order005</t>
+  </si>
+  <si>
+    <t>test_order006</t>
+  </si>
+  <si>
+    <t>test_order007</t>
+  </si>
+  <si>
+    <t>test_order008</t>
+  </si>
+  <si>
+    <t>test_order009</t>
+  </si>
+  <si>
+    <t>test_order010</t>
+  </si>
+  <si>
+    <t>用户姓名：杨芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码：15095859543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆编码：120113000064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端编号：3485095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否应付：有应付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态：骑行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常状态：无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否违约：有违约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型：非员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束状态：客户结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取车位置：站外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间：2020-07-01 00:00:00,2020-07-03 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order011</t>
+  </si>
+  <si>
+    <t>test_order012</t>
+  </si>
+  <si>
+    <t>test_order013</t>
+  </si>
+  <si>
+    <t>test_order014</t>
+  </si>
+  <si>
+    <t>test_order015</t>
+  </si>
+  <si>
+    <t>test_order016</t>
+  </si>
+  <si>
+    <t>test_order017</t>
+  </si>
+  <si>
+    <t>test_order018</t>
+  </si>
+  <si>
+    <t>test_order019</t>
+  </si>
+  <si>
+    <t>订单编号：1516111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1516111，用户姓名：杨芸，手机号码：18113174189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆编码：120113000064，终端编号：3485095，订单状态：已结束，异常状态：无异常，用户类型：非员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名：杨芸，车辆编码：120113000064，开始时间：2020-05-01 00:00:00,2020-05-06 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码：15095859543，结束状态：用户结束，用户类型：员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1516111，用户姓名：杨芸，手机号码：18113174189，车辆编码：120113000064，终端编号：3485095，是否应付：有应付，订单状态：已结束，异常状态：有异常，是否违约：无违约，用户类型：员工，结束状态：boss结束，取车位置：站外，开始时间：2020-05-01 00:00:00,2020-06-01 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型：非员工，结束状态：运维结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_order020</t>
+  </si>
+  <si>
+    <t>test_order021</t>
+  </si>
+  <si>
+    <t>test_order022</t>
+  </si>
+  <si>
+    <t>test_order023</t>
+  </si>
+  <si>
+    <t>test_order024</t>
+  </si>
+  <si>
+    <t>test_order025</t>
+  </si>
+  <si>
+    <t>是否违约：有违约，异常状态：无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,390 +495,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>username=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15085858585</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-password=admin</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>username=15095859543</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-password=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户或密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>username=  15085858585</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-password=123456</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>username=15085858585</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-password=  123456</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_movecar001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_movecar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_movecar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_movecar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_movecar002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工姓名：赵楠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_movecar003</t>
-  </si>
-  <si>
-    <t>车辆编码：120113000064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_movecar004</t>
-  </si>
-  <si>
-    <t>test_movecar005</t>
-  </si>
-  <si>
-    <t>test_movecar006</t>
-  </si>
-  <si>
-    <t>test_movecar007</t>
-  </si>
-  <si>
-    <t>车辆编码：120113000064，员工姓名：杨芸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00，车辆编码：120113000064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工姓名：杨芸，开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆编码：120113000064，开始时间：2020-07-20 00:00:00,2020-07-21 00:00:00，员工姓名：杨芸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_order001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est_order</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est_order</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_order002</t>
-  </si>
-  <si>
-    <t>test_order003</t>
-  </si>
-  <si>
-    <t>test_order004</t>
-  </si>
-  <si>
-    <t>test_order005</t>
-  </si>
-  <si>
-    <t>test_order006</t>
-  </si>
-  <si>
-    <t>test_order007</t>
-  </si>
-  <si>
-    <t>test_order008</t>
-  </si>
-  <si>
-    <t>test_order009</t>
-  </si>
-  <si>
-    <t>test_order010</t>
-  </si>
-  <si>
-    <t>用户姓名：杨芸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码：15095859543</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆编码：120113000064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端编号：3485095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否应付：有应付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态：骑行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常状态：无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否违约：有违约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型：非员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束状态：客户结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取车位置：站外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间：2020-07-01 00:00:00,2020-07-03 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_order011</t>
-  </si>
-  <si>
-    <t>test_order012</t>
-  </si>
-  <si>
-    <t>test_order013</t>
-  </si>
-  <si>
-    <t>test_order014</t>
-  </si>
-  <si>
-    <t>test_order015</t>
-  </si>
-  <si>
-    <t>test_order016</t>
-  </si>
-  <si>
-    <t>test_order017</t>
-  </si>
-  <si>
-    <t>test_order018</t>
-  </si>
-  <si>
-    <t>test_order019</t>
-  </si>
-  <si>
-    <t>订单编号：1516111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1516111，用户姓名：杨芸，手机号码：18113174189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆编码：120113000064，终端编号：3485095，订单状态：已结束，异常状态：无异常，用户类型：非员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名：杨芸，车辆编码：120113000064，开始时间：2020-05-01 00:00:00,2020-05-06 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码：15095859543，结束状态：用户结束，用户类型：员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1516111，用户姓名：杨芸，手机号码：18113174189，车辆编码：120113000064，终端编号：3485095，是否应付：有应付，订单状态：已结束，异常状态：有异常，是否违约：无违约，用户类型：员工，结束状态：boss结束，取车位置：站外，开始时间：2020-05-01 00:00:00,2020-06-01 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型：非员工，结束状态：运维结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_order020</t>
-  </si>
-  <si>
-    <t>test_order021</t>
-  </si>
-  <si>
-    <t>test_order022</t>
-  </si>
-  <si>
-    <t>test_order023</t>
-  </si>
-  <si>
-    <t>test_order024</t>
-  </si>
-  <si>
-    <t>test_order025</t>
-  </si>
-  <si>
-    <t>是否违约：有违约，异常状态：无异常</t>
+    <t>欢迎您</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -937,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -954,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -974,15 +975,15 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -994,15 +995,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1014,560 +1015,560 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
